--- a/Tipos de Juego.xlsx
+++ b/Tipos de Juego.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,27 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>e1</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>e3</t>
-  </si>
-  <si>
-    <t>s3</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -180,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -203,25 +185,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -233,22 +203,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,6 +228,2633 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto de flecha 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35FA7A6-E857-464D-9845-39882325B5C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="904875" y="1800225"/>
+          <a:ext cx="685800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6865355C-5DFF-4609-8192-C8A273F7859E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2990850" y="1619250"/>
+          <a:ext cx="0" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto de flecha 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E82596C-F33F-498D-935B-249CF91C09DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1238250" y="1219200"/>
+          <a:ext cx="685800" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto de flecha 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFCB8D3-BEDC-4E38-919A-F8BD5767FFF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1647825" y="1057275"/>
+          <a:ext cx="647700" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector recto de flecha 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0740D3-9DD7-43F4-8A52-662AA72CE1DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1924050" y="695325"/>
+          <a:ext cx="676275" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Conector recto de flecha 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBB3CC8-3436-451E-AA96-FEC3C7450512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2962275" y="685800"/>
+          <a:ext cx="400050" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Conector recto de flecha 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1D6224-C3BA-4E4C-A6FA-AE6842F8E944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="1266825"/>
+          <a:ext cx="9525" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Conector recto de flecha 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92357314-7EE5-4D5A-8DF8-0BFCE559B47F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2000250" y="1609725"/>
+          <a:ext cx="638175" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Conector recto de flecha 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91D293C-F517-4142-AC76-FB1A80A4490A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="1276350"/>
+          <a:ext cx="733425" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector recto de flecha 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C20743-42B2-4553-8C59-C7F5F4FECA7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="857250"/>
+          <a:ext cx="323850" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Conector recto de flecha 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBCEE9A-EA3F-4D1C-8BBA-C0207EEBA3D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2000250" y="1057275"/>
+          <a:ext cx="314325" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Conector recto de flecha 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EFB7EAD-AFE7-430D-86D0-DDDD76EDB7A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="657225"/>
+          <a:ext cx="9525" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Conector recto de flecha 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060395B2-7213-4631-A9CB-FFFA65210E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1543050" y="4124325"/>
+          <a:ext cx="390525" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Conector recto de flecha 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3055F114-0080-4EF1-AE0F-5A9DCCE638B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="895350" y="7229475"/>
+          <a:ext cx="361950" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Conector recto de flecha 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B91D512-71A4-4E48-B93E-868DA98ED6FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3686175" y="6877051"/>
+          <a:ext cx="342900" cy="1457324"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Conector recto de flecha 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE61055-26B8-4999-9DD5-A89808B9EED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1933575" y="6153150"/>
+          <a:ext cx="1466850" cy="1447801"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Conector recto de flecha 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{615043B1-2E27-407C-98EF-91BFCA28B1E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1257300" y="6886575"/>
+          <a:ext cx="704850" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Conector recto de flecha 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECC2047-2E1A-460C-8971-327F02C8A139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="876300" y="5476875"/>
+          <a:ext cx="342900" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Conector recto de flecha 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0F289E-DF4E-4817-AE51-60D27A7819A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2295525" y="5105401"/>
+          <a:ext cx="342900" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Conector recto de flecha 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CA642F-404C-4166-9EF4-AC5CA219D21A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2990850" y="5124451"/>
+          <a:ext cx="723900" cy="1381124"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Conector recto de flecha 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB9BBBE-FCCA-4893-8101-4D22BEAD826B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="7886700"/>
+          <a:ext cx="1123950" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Conector recto de flecha 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47DD2627-66E7-4F1E-85E3-F8FD304641BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1571625" y="6543675"/>
+          <a:ext cx="9525" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Conector recto de flecha 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F61D7DD-4329-4C56-AB40-A748E653886E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2619375" y="6810375"/>
+          <a:ext cx="390525" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Conector recto de flecha 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB15454-8DE0-403A-8571-A737110B13E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="6191250"/>
+          <a:ext cx="342900" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Conector recto de flecha 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E27F482-2E7B-4D58-9BC9-152FF1B6CB0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2981325" y="5105400"/>
+          <a:ext cx="352425" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Conector recto de flecha 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F44B261-6210-4176-AD6E-352CCCA452B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1952625" y="5467350"/>
+          <a:ext cx="1038226" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Conector recto de flecha 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A0BF23-83C0-4E4C-94A7-5489C01CEF7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="5114925"/>
+          <a:ext cx="428625" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Conector recto de flecha 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B99316-298D-42B8-AFBE-1279A59E51AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1619250" y="5143500"/>
+          <a:ext cx="323851" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Conector recto de flecha 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C509CA-673E-453F-B00A-AF58E3855A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2592917" y="13419667"/>
+          <a:ext cx="762000" cy="719666"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179918</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Conector recto de flecha 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B07A8A3-B646-4650-9ACF-4C55AB14E7E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1576918" y="13451417"/>
+          <a:ext cx="1026582" cy="709083"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Conector recto de flecha 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC5CD94-594F-4892-820E-891852AFF80B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3333750" y="12721167"/>
+          <a:ext cx="1418167" cy="1418166"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179917</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179917</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>201084</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Conector recto de flecha 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEE15153-3E0D-4285-9E9F-074AE2837B16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1576917" y="12752917"/>
+          <a:ext cx="0" cy="719667"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>137584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137583</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="Conector recto de flecha 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FA5996-E2CA-40BC-9147-4781E7CD1C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2921000" y="12710584"/>
+          <a:ext cx="709083" cy="402166"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Conector recto de flecha 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B45DDA-B9E5-44B3-A40C-95F2AB6A3297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1894417" y="11705167"/>
+          <a:ext cx="740833" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>179917</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>201083</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="Conector recto de flecha 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADD5615-E936-4949-A3C8-82152F1F6DB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="878417" y="10646833"/>
+          <a:ext cx="1778000" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137583</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>179917</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="Conector recto de flecha 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8E2D73-830D-48AE-B32A-96F1C57FAC21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3280833" y="10287000"/>
+          <a:ext cx="740834" cy="1111250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>201083</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="Conector recto de flecha 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B0F38-F413-4D3C-9609-845034E17A77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2645833" y="11334750"/>
+          <a:ext cx="1068917" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>201083</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="Conector recto de flecha 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDECA9B7-8409-4C73-90CC-4242DC67EFCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4392083" y="10996083"/>
+          <a:ext cx="338667" cy="1386417"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="Conector recto de flecha 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ADD932C-D819-4170-95EB-2B5EBB59DF4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="857251" y="12403667"/>
+          <a:ext cx="709082" cy="1407583"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>201083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="Conector recto de flecha 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8979330D-9720-490A-9114-49BAA8FCA08C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4032250" y="12774083"/>
+          <a:ext cx="1" cy="994834"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>232833</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>148168</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="Conector recto de flecha 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C079284F-4E0D-4E76-AA42-32D544133A33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3026833" y="11705167"/>
+          <a:ext cx="613835" cy="1397000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>179917</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="Conector recto de flecha 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992CED9B-D880-4E9B-AEFC-299E0A879109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1926167" y="10985500"/>
+          <a:ext cx="1375833" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>179917</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="Conector recto de flecha 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6561859-2FBB-4541-957A-2AFC19742123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="878417" y="10308167"/>
+          <a:ext cx="677333" cy="1397000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>201083</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>232833</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>211667</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="Conector recto de flecha 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2679FC1-6EE9-4F62-90CE-9629775951C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1248833" y="11355917"/>
+          <a:ext cx="381000" cy="730250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>201083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>201083</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="Conector recto de flecha 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4059DA-9DF2-4D06-8B60-27DA5BD2A50A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1566333" y="10329333"/>
+          <a:ext cx="370417" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="Conector recto de flecha 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F359F331-ED83-4253-9C9D-18A4AC9449B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4011083" y="10699750"/>
+          <a:ext cx="21167" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,10 +3154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P41"/>
+  <dimension ref="B1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +3165,9 @@
     <col min="1" max="14" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>0</v>
@@ -600,357 +3193,441 @@
       <c r="J3" s="1">
         <v>7</v>
       </c>
-      <c r="K3" s="1">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="22"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6</v>
+      </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="N4" s="1"/>
+      <c r="J4" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6">
+        <v>6</v>
+      </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6">
+        <v>6</v>
+      </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="8"/>
+      <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>0</v>
+      <c r="E6" s="6">
+        <v>4</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
+      <c r="I6" s="6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="10" t="s">
+      <c r="H7" s="6">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6">
+        <v>6</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="O7" s="14" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6"/>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
+        <v>4</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="25" t="s">
-        <v>8</v>
-      </c>
+      <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
         <v>4</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6">
+        <v>3</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="8"/>
+      <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
+      <c r="I11" s="12">
+        <v>2</v>
+      </c>
+      <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+    <row r="12" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1">
+        <v>7</v>
+      </c>
+      <c r="K14" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="8"/>
+      <c r="L14" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>9</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
+    <row r="15" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
+        <v>6</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6">
+        <v>6</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="14"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>8</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
+        <v>8</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="11"/>
     </row>
-    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
+    <row r="18" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
         <v>3</v>
       </c>
-      <c r="G16" s="1">
-        <v>4</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="C18" s="5">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6">
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <v>6</v>
-      </c>
-      <c r="J16" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="15"/>
+      <c r="I18" s="6">
+        <v>5</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="8">
+        <v>4</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
         <v>2</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6">
+        <v>6</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="11"/>
+      <c r="N19" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="6" t="s">
-        <v>0</v>
+      <c r="D20" s="6">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>6</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="15"/>
-      <c r="O20" s="25" t="s">
-        <v>9</v>
+      <c r="I20" s="6">
+        <v>3</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="11">
+        <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
         <v>4</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="11">
         <v>4</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="6">
+        <v>3</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6">
+        <v>5</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="2:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>9</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="15"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12">
+        <v>1</v>
+      </c>
+      <c r="K24" s="12">
+        <v>2</v>
+      </c>
+      <c r="L24" s="13"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <v>6</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
-        <v>7</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1">
         <v>0</v>
@@ -989,28 +3666,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>0</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="18"/>
+      <c r="E30" s="3">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3">
+        <v>9</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="19"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3">
+        <v>6</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -1019,217 +3700,271 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="6" t="s">
-        <v>1</v>
+      <c r="H31" s="6">
+        <v>8</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="8"/>
+      <c r="J31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6">
+        <v>6</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="11"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>2</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="9" t="s">
-        <v>0</v>
+      <c r="E32" s="8">
+        <v>9</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="8"/>
+      <c r="J32" s="6">
+        <v>5</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>3</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="H33" s="6">
+        <v>9</v>
+      </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="J33" s="6">
+        <v>6</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>4</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="7"/>
+      <c r="C34" s="5">
+        <v>8</v>
+      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="6">
+        <v>7</v>
+      </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="6"/>
+      <c r="I34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6">
+        <v>4</v>
+      </c>
+      <c r="L34" s="6">
         <v>6</v>
       </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="8"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>5</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="C35" s="5">
+        <v>8</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>7</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="8"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6"/>
+      <c r="N35" s="11"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>6</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="6">
+        <v>2</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="H36" s="6">
+        <v>7</v>
+      </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="8"/>
+      <c r="K36" s="6">
+        <v>9</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6">
+        <v>5</v>
+      </c>
+      <c r="N36" s="11"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>7</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="8">
+        <v>3</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6">
+        <v>4</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6">
+        <v>3</v>
+      </c>
+      <c r="M37" s="6"/>
+      <c r="N37" s="11">
         <v>2</v>
       </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="8" t="s">
+      <c r="P37" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P37" s="25" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>8</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="8"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="6">
+        <v>5</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6">
+        <v>4</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="8">
+        <v>4</v>
+      </c>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>9</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="8"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6">
+        <v>3</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6">
+        <v>1</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>10</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="8"/>
+      <c r="C40" s="5">
+        <v>2</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6">
+        <v>3</v>
+      </c>
+      <c r="M40" s="6"/>
+      <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>11</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12">
+        <v>1</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="15">
+        <v>1</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12">
         <v>2</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
-      <c r="N41" s="14"/>
+      <c r="N41" s="13"/>
     </row>
+    <row r="42" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tipos de Juego.xlsx
+++ b/Tipos de Juego.xlsx
@@ -3156,8 +3156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3941,9 +3941,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="12" t="s">
-        <v>0</v>
-      </c>
+      <c r="D41" s="12"/>
       <c r="E41" s="12">
         <v>1</v>
       </c>
@@ -3957,7 +3955,9 @@
         <v>2</v>
       </c>
       <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
+      <c r="L41" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="M41" s="12"/>
       <c r="N41" s="13"/>
     </row>
